--- a/Experiment/Results/MemoryUsage.xlsx
+++ b/Experiment/Results/MemoryUsage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howest\GD_J3_S2\Gradwork_2.0\Gradwork\Experiment\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821F3799-E29A-4BBD-BA2F-94838589FC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D49EB18-9BB1-4BD8-9A11-B13D3F253A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19150" yWindow="-320" windowWidth="17940" windowHeight="10660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22550" yWindow="-10100" windowWidth="16430" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSAO" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
@@ -333,6 +333,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
@@ -618,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:X30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,67 +716,67 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D15" si="0">AVERAGE(E4:AC4)</f>
-        <v>540.25</v>
+        <v>514.79999999999995</v>
       </c>
       <c r="E4" s="3">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="F4" s="3">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="G4" s="3">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="H4" s="3">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="I4" s="3">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="J4" s="3">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="K4" s="3">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="L4" s="3">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="M4" s="3">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="N4" s="3">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="O4" s="3">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="P4" s="3">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="Q4" s="3">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="R4" s="3">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="S4" s="3">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="T4" s="3">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="U4" s="3">
-        <v>539</v>
-      </c>
-      <c r="V4" s="3">
-        <v>536</v>
+        <v>518</v>
+      </c>
+      <c r="V4" s="19">
+        <v>513</v>
       </c>
       <c r="W4" s="2">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="X4" s="3">
-        <v>538</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
@@ -787,67 +788,67 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>901.95</v>
+        <v>689.6</v>
       </c>
       <c r="E5" s="6">
-        <v>776</v>
+        <v>684</v>
       </c>
       <c r="F5" s="6">
-        <v>1017</v>
+        <v>686</v>
       </c>
       <c r="G5" s="6">
-        <v>1530</v>
+        <v>686</v>
       </c>
       <c r="H5" s="6">
-        <v>1527</v>
+        <v>686</v>
       </c>
       <c r="I5" s="6">
-        <v>1529</v>
+        <v>686</v>
       </c>
       <c r="J5" s="6">
-        <v>777</v>
+        <v>687</v>
       </c>
       <c r="K5" s="6">
-        <v>773</v>
+        <v>693</v>
       </c>
       <c r="L5" s="6">
-        <v>776</v>
+        <v>685</v>
       </c>
       <c r="M5" s="6">
-        <v>773</v>
+        <v>703</v>
       </c>
       <c r="N5" s="6">
-        <v>778</v>
+        <v>708</v>
       </c>
       <c r="O5" s="6">
-        <v>785</v>
+        <v>703</v>
       </c>
       <c r="P5" s="6">
-        <v>783</v>
+        <v>684</v>
       </c>
       <c r="Q5" s="6">
-        <v>778</v>
+        <v>688</v>
       </c>
       <c r="R5" s="6">
-        <v>780</v>
+        <v>687</v>
       </c>
       <c r="S5" s="6">
-        <v>780</v>
+        <v>690</v>
       </c>
       <c r="T5" s="6">
-        <v>775</v>
+        <v>685</v>
       </c>
       <c r="U5" s="6">
-        <v>776</v>
+        <v>688</v>
       </c>
       <c r="V5" s="6">
-        <v>774</v>
+        <v>686</v>
       </c>
       <c r="W5" s="5">
-        <v>777</v>
+        <v>687</v>
       </c>
       <c r="X5" s="6">
-        <v>775</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
@@ -859,67 +860,67 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>1829.3</v>
+        <v>1293.45</v>
       </c>
       <c r="E6" s="6">
-        <v>2208</v>
+        <v>1288</v>
       </c>
       <c r="F6" s="6">
-        <v>1922</v>
+        <v>1288</v>
       </c>
       <c r="G6" s="6">
-        <v>1921</v>
+        <v>1287</v>
       </c>
       <c r="H6" s="6">
-        <v>1921</v>
+        <v>1289</v>
       </c>
       <c r="I6" s="6">
-        <v>3204</v>
+        <v>1305</v>
       </c>
       <c r="J6" s="6">
-        <v>1912</v>
+        <v>1289</v>
       </c>
       <c r="K6" s="6">
-        <v>1669</v>
+        <v>1292</v>
       </c>
       <c r="L6" s="6">
-        <v>1690</v>
+        <v>1291</v>
       </c>
       <c r="M6" s="6">
-        <v>1669</v>
+        <v>1304</v>
       </c>
       <c r="N6" s="6">
-        <v>1690</v>
+        <v>1307</v>
       </c>
       <c r="O6" s="6">
-        <v>1690</v>
+        <v>1306</v>
       </c>
       <c r="P6" s="6">
-        <v>1672</v>
+        <v>1289</v>
       </c>
       <c r="Q6" s="6">
-        <v>1670</v>
+        <v>1293</v>
       </c>
       <c r="R6" s="6">
-        <v>1690</v>
+        <v>1289</v>
       </c>
       <c r="S6" s="6">
-        <v>1674</v>
+        <v>1290</v>
       </c>
       <c r="T6" s="6">
-        <v>1667</v>
+        <v>1287</v>
       </c>
       <c r="U6" s="6">
-        <v>1672</v>
+        <v>1290</v>
       </c>
       <c r="V6" s="6">
-        <v>1687</v>
+        <v>1288</v>
       </c>
       <c r="W6" s="5">
-        <v>1670</v>
+        <v>1309</v>
       </c>
       <c r="X6" s="6">
-        <v>1688</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
@@ -931,67 +932,67 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>540.85</v>
+        <v>517.35</v>
       </c>
       <c r="E7" s="10">
-        <v>564</v>
+        <v>515</v>
       </c>
       <c r="F7" s="10">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="G7" s="10">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="H7" s="10">
+        <v>533</v>
+      </c>
+      <c r="I7" s="10">
+        <v>515</v>
+      </c>
+      <c r="J7" s="10">
+        <v>515</v>
+      </c>
+      <c r="K7" s="10">
+        <v>512</v>
+      </c>
+      <c r="L7" s="10">
+        <v>514</v>
+      </c>
+      <c r="M7" s="10">
+        <v>517</v>
+      </c>
+      <c r="N7" s="10">
+        <v>514</v>
+      </c>
+      <c r="O7" s="10">
         <v>539</v>
       </c>
-      <c r="I7" s="10">
-        <v>539</v>
-      </c>
-      <c r="J7" s="10">
-        <v>540</v>
-      </c>
-      <c r="K7" s="10">
-        <v>535</v>
-      </c>
-      <c r="L7" s="10">
-        <v>542</v>
-      </c>
-      <c r="M7" s="10">
-        <v>540</v>
-      </c>
-      <c r="N7" s="10">
-        <v>540</v>
-      </c>
-      <c r="O7" s="10">
-        <v>538</v>
-      </c>
       <c r="P7" s="10">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="Q7" s="10">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="R7" s="10">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="S7" s="10">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="T7" s="10">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="U7" s="10">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="V7" s="10">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="W7" s="8">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="X7" s="10">
-        <v>535</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
@@ -1003,67 +1004,67 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>789.85</v>
+        <v>699.05</v>
       </c>
       <c r="E8" s="10">
-        <v>799</v>
+        <v>706</v>
       </c>
       <c r="F8" s="10">
-        <v>798</v>
+        <v>704</v>
       </c>
       <c r="G8" s="10">
-        <v>794</v>
+        <v>683</v>
       </c>
       <c r="H8" s="10">
-        <v>795</v>
+        <v>701</v>
       </c>
       <c r="I8" s="10">
-        <v>796</v>
+        <v>704</v>
       </c>
       <c r="J8" s="10">
-        <v>776</v>
+        <v>703</v>
       </c>
       <c r="K8" s="10">
-        <v>792</v>
+        <v>704</v>
       </c>
       <c r="L8" s="10">
-        <v>779</v>
+        <v>710</v>
       </c>
       <c r="M8" s="10">
-        <v>771</v>
+        <v>686</v>
       </c>
       <c r="N8" s="10">
-        <v>796</v>
+        <v>706</v>
       </c>
       <c r="O8" s="10">
-        <v>797</v>
+        <v>707</v>
       </c>
       <c r="P8" s="10">
-        <v>783</v>
+        <v>706</v>
       </c>
       <c r="Q8" s="10">
-        <v>800</v>
+        <v>705</v>
       </c>
       <c r="R8" s="10">
-        <v>778</v>
+        <v>686</v>
       </c>
       <c r="S8" s="10">
-        <v>778</v>
+        <v>687</v>
       </c>
       <c r="T8" s="10">
-        <v>801</v>
+        <v>702</v>
       </c>
       <c r="U8" s="10">
-        <v>794</v>
+        <v>706</v>
       </c>
       <c r="V8" s="10">
-        <v>799</v>
+        <v>705</v>
       </c>
       <c r="W8" s="8">
-        <v>778</v>
+        <v>684</v>
       </c>
       <c r="X8" s="10">
-        <v>793</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
@@ -1075,67 +1076,67 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>1680.4</v>
+        <v>1303.1500000000001</v>
       </c>
       <c r="E9" s="10">
-        <v>1619</v>
+        <v>1307</v>
       </c>
       <c r="F9" s="10">
-        <v>1687</v>
+        <v>1305</v>
       </c>
       <c r="G9" s="10">
-        <v>1689</v>
+        <v>1305</v>
       </c>
       <c r="H9" s="10">
-        <v>1688</v>
+        <v>1308</v>
       </c>
       <c r="I9" s="10">
-        <v>1691</v>
+        <v>1305</v>
       </c>
       <c r="J9" s="10">
-        <v>1670</v>
+        <v>1309</v>
       </c>
       <c r="K9" s="10">
-        <v>1687</v>
+        <v>1307</v>
       </c>
       <c r="L9" s="10">
-        <v>1671</v>
+        <v>1306</v>
       </c>
       <c r="M9" s="10">
-        <v>1671</v>
+        <v>1291</v>
       </c>
       <c r="N9" s="10">
-        <v>1690</v>
+        <v>1309</v>
       </c>
       <c r="O9" s="10">
-        <v>1687</v>
+        <v>1307</v>
       </c>
       <c r="P9" s="10">
-        <v>1674</v>
+        <v>1306</v>
       </c>
       <c r="Q9" s="10">
-        <v>1689</v>
+        <v>1309</v>
       </c>
       <c r="R9" s="10">
-        <v>1671</v>
+        <v>1288</v>
       </c>
       <c r="S9" s="10">
-        <v>1672</v>
+        <v>1307</v>
       </c>
       <c r="T9" s="10">
-        <v>1690</v>
+        <v>1306</v>
       </c>
       <c r="U9" s="10">
-        <v>1691</v>
+        <v>1306</v>
       </c>
       <c r="V9" s="10">
-        <v>1693</v>
+        <v>1306</v>
       </c>
       <c r="W9" s="8">
-        <v>1690</v>
+        <v>1289</v>
       </c>
       <c r="X9" s="10">
-        <v>1688</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
@@ -1147,67 +1148,67 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>549.75</v>
+        <v>526.54999999999995</v>
       </c>
       <c r="E10" s="6">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="F10" s="6">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="G10" s="6">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H10" s="6">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="I10" s="6">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="J10" s="6">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="K10" s="6">
+        <v>534</v>
+      </c>
+      <c r="L10" s="6">
+        <v>532</v>
+      </c>
+      <c r="M10" s="6">
+        <v>517</v>
+      </c>
+      <c r="N10" s="6">
+        <v>516</v>
+      </c>
+      <c r="O10" s="6">
+        <v>539</v>
+      </c>
+      <c r="P10" s="6">
+        <v>515</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>533</v>
+      </c>
+      <c r="R10" s="6">
+        <v>535</v>
+      </c>
+      <c r="S10" s="6">
+        <v>511</v>
+      </c>
+      <c r="T10" s="6">
+        <v>514</v>
+      </c>
+      <c r="U10" s="6">
+        <v>515</v>
+      </c>
+      <c r="V10" s="6">
+        <v>534</v>
+      </c>
+      <c r="W10" s="5">
         <v>536</v>
       </c>
-      <c r="L10" s="6">
-        <v>538</v>
-      </c>
-      <c r="M10" s="6">
-        <v>562</v>
-      </c>
-      <c r="N10" s="6">
-        <v>537</v>
-      </c>
-      <c r="O10" s="6">
-        <v>561</v>
-      </c>
-      <c r="P10" s="6">
-        <v>556</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>560</v>
-      </c>
-      <c r="R10" s="6">
-        <v>541</v>
-      </c>
-      <c r="S10" s="6">
-        <v>557</v>
-      </c>
-      <c r="T10" s="6">
-        <v>556</v>
-      </c>
-      <c r="U10" s="6">
-        <v>560</v>
-      </c>
-      <c r="V10" s="6">
-        <v>544</v>
-      </c>
-      <c r="W10" s="5">
-        <v>541</v>
-      </c>
       <c r="X10" s="6">
-        <v>542</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
@@ -1219,67 +1220,67 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>789.2</v>
+        <v>699.4</v>
       </c>
       <c r="E11" s="6">
-        <v>800</v>
+        <v>706</v>
       </c>
       <c r="F11" s="6">
-        <v>800</v>
+        <v>706</v>
       </c>
       <c r="G11" s="6">
-        <v>795</v>
+        <v>704</v>
       </c>
       <c r="H11" s="6">
-        <v>800</v>
+        <v>686</v>
       </c>
       <c r="I11" s="6">
-        <v>777</v>
+        <v>707</v>
       </c>
       <c r="J11" s="6">
-        <v>779</v>
+        <v>709</v>
       </c>
       <c r="K11" s="6">
-        <v>775</v>
+        <v>711</v>
       </c>
       <c r="L11" s="6">
-        <v>777</v>
+        <v>706</v>
       </c>
       <c r="M11" s="6">
-        <v>800</v>
+        <v>688</v>
       </c>
       <c r="N11" s="6">
-        <v>776</v>
+        <v>688</v>
       </c>
       <c r="O11" s="6">
-        <v>799</v>
+        <v>708</v>
       </c>
       <c r="P11" s="6">
-        <v>795</v>
+        <v>683</v>
       </c>
       <c r="Q11" s="6">
-        <v>801</v>
+        <v>703</v>
       </c>
       <c r="R11" s="6">
-        <v>780</v>
+        <v>709</v>
       </c>
       <c r="S11" s="6">
-        <v>795</v>
+        <v>684</v>
       </c>
       <c r="T11" s="6">
-        <v>793</v>
+        <v>704</v>
       </c>
       <c r="U11" s="6">
-        <v>802</v>
+        <v>685</v>
       </c>
       <c r="V11" s="6">
-        <v>781</v>
+        <v>705</v>
       </c>
       <c r="W11" s="5">
-        <v>777</v>
+        <v>706</v>
       </c>
       <c r="X11" s="6">
-        <v>782</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
@@ -1291,67 +1292,67 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>1681.9</v>
+        <v>1300.95</v>
       </c>
       <c r="E12" s="6">
-        <v>1693</v>
+        <v>1306</v>
       </c>
       <c r="F12" s="6">
-        <v>1691</v>
+        <v>1307</v>
       </c>
       <c r="G12" s="6">
-        <v>1690</v>
+        <v>1305</v>
       </c>
       <c r="H12" s="6">
-        <v>1696</v>
+        <v>1288</v>
       </c>
       <c r="I12" s="6">
-        <v>1671</v>
+        <v>1308</v>
       </c>
       <c r="J12" s="6">
-        <v>1674</v>
+        <v>1309</v>
       </c>
       <c r="K12" s="6">
-        <v>1669</v>
+        <v>1309</v>
       </c>
       <c r="L12" s="6">
-        <v>1670</v>
+        <v>1310</v>
       </c>
       <c r="M12" s="6">
-        <v>1691</v>
+        <v>1289</v>
       </c>
       <c r="N12" s="6">
-        <v>1670</v>
+        <v>1289</v>
       </c>
       <c r="O12" s="6">
-        <v>1689</v>
+        <v>1310</v>
       </c>
       <c r="P12" s="6">
-        <v>1688</v>
+        <v>1288</v>
       </c>
       <c r="Q12" s="6">
-        <v>1692</v>
+        <v>1303</v>
       </c>
       <c r="R12" s="6">
-        <v>1671</v>
+        <v>1311</v>
       </c>
       <c r="S12" s="6">
-        <v>1691</v>
+        <v>1288</v>
       </c>
       <c r="T12" s="6">
-        <v>1685</v>
+        <v>1307</v>
       </c>
       <c r="U12" s="6">
-        <v>1692</v>
+        <v>1287</v>
       </c>
       <c r="V12" s="6">
-        <v>1669</v>
+        <v>1307</v>
       </c>
       <c r="W12" s="5">
-        <v>1673</v>
+        <v>1308</v>
       </c>
       <c r="X12" s="6">
-        <v>1673</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
@@ -1363,67 +1364,67 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
-        <v>551.5</v>
+        <v>523.5</v>
       </c>
       <c r="E13" s="10">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="F13" s="10">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="G13" s="10">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="H13" s="10">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="I13" s="10">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="J13" s="10">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="K13" s="10">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="L13" s="10">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="M13" s="10">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="N13" s="10">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="O13" s="10">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="P13" s="10">
-        <v>559</v>
+        <v>513</v>
       </c>
       <c r="Q13" s="10">
-        <v>562</v>
+        <v>514</v>
       </c>
       <c r="R13" s="10">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="S13" s="10">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="T13" s="10">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="U13" s="10">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="V13" s="10">
-        <v>560</v>
+        <v>518</v>
       </c>
       <c r="W13" s="8">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="X13" s="10">
-        <v>561</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
@@ -1435,67 +1436,67 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
-        <v>793.7</v>
+        <v>696.35</v>
       </c>
       <c r="E14" s="10">
-        <v>797</v>
+        <v>703</v>
       </c>
       <c r="F14" s="10">
-        <v>795</v>
+        <v>702</v>
       </c>
       <c r="G14" s="10">
-        <v>794</v>
+        <v>704</v>
       </c>
       <c r="H14" s="10">
-        <v>798</v>
+        <v>705</v>
       </c>
       <c r="I14" s="10">
-        <v>798</v>
+        <v>705</v>
       </c>
       <c r="J14" s="10">
-        <v>795</v>
+        <v>705</v>
       </c>
       <c r="K14" s="11">
-        <v>799</v>
+        <v>703</v>
       </c>
       <c r="L14" s="10">
-        <v>779</v>
+        <v>688</v>
       </c>
       <c r="M14" s="10">
-        <v>797</v>
+        <v>684</v>
       </c>
       <c r="N14" s="10">
-        <v>778</v>
+        <v>686</v>
       </c>
       <c r="O14" s="10">
-        <v>800</v>
+        <v>684</v>
       </c>
       <c r="P14" s="10">
-        <v>797</v>
+        <v>685</v>
       </c>
       <c r="Q14" s="10">
-        <v>796</v>
+        <v>687</v>
       </c>
       <c r="R14" s="10">
-        <v>779</v>
+        <v>684</v>
       </c>
       <c r="S14" s="10">
-        <v>799</v>
+        <v>704</v>
       </c>
       <c r="T14" s="10">
-        <v>795</v>
+        <v>706</v>
       </c>
       <c r="U14" s="10">
-        <v>780</v>
+        <v>689</v>
       </c>
       <c r="V14" s="10">
-        <v>798</v>
+        <v>706</v>
       </c>
       <c r="W14" s="8">
-        <v>800</v>
+        <v>690</v>
       </c>
       <c r="X14" s="10">
-        <v>800</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1507,67 +1508,67 @@
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>1686.3</v>
+        <v>1298.5999999999999</v>
       </c>
       <c r="E15" s="10">
-        <v>1689</v>
+        <v>1308</v>
       </c>
       <c r="F15" s="10">
-        <v>1691</v>
+        <v>1304</v>
       </c>
       <c r="G15" s="10">
-        <v>1687</v>
+        <v>1307</v>
       </c>
       <c r="H15" s="10">
-        <v>1687</v>
+        <v>1307</v>
       </c>
       <c r="I15" s="10">
-        <v>1693</v>
+        <v>1308</v>
       </c>
       <c r="J15" s="10">
-        <v>1690</v>
+        <v>1305</v>
       </c>
       <c r="K15" s="10">
-        <v>1691</v>
+        <v>1304</v>
       </c>
       <c r="L15" s="10">
-        <v>1671</v>
+        <v>1290</v>
       </c>
       <c r="M15" s="10">
-        <v>1688</v>
+        <v>1287</v>
       </c>
       <c r="N15" s="10">
-        <v>1671</v>
+        <v>1290</v>
       </c>
       <c r="O15" s="10">
-        <v>1692</v>
+        <v>1288</v>
       </c>
       <c r="P15" s="10">
-        <v>1689</v>
+        <v>1287</v>
       </c>
       <c r="Q15" s="10">
-        <v>1693</v>
+        <v>1288</v>
       </c>
       <c r="R15" s="10">
-        <v>1670</v>
+        <v>1289</v>
       </c>
       <c r="S15" s="10">
-        <v>1692</v>
+        <v>1304</v>
       </c>
       <c r="T15" s="10">
-        <v>1688</v>
+        <v>1307</v>
       </c>
       <c r="U15" s="10">
-        <v>1671</v>
+        <v>1291</v>
       </c>
       <c r="V15" s="10">
-        <v>1689</v>
+        <v>1310</v>
       </c>
       <c r="W15" s="8">
-        <v>1692</v>
+        <v>1290</v>
       </c>
       <c r="X15" s="10">
-        <v>1692</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1727,67 +1728,67 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" ref="D20:D30" si="1">AVERAGE(E20:AC20)</f>
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="R20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X20" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
@@ -1799,67 +1800,67 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" si="1"/>
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="J21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="L21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="N21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="O21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="P21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Q21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="R21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="S21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="T21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="U21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="V21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="W21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="X21" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
@@ -1943,67 +1944,67 @@
       </c>
       <c r="D23" s="9">
         <f t="shared" si="1"/>
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="R23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X23" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.3">
@@ -2015,67 +2016,67 @@
       </c>
       <c r="D24" s="9">
         <f t="shared" si="1"/>
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="J24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="L24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="N24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="O24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="P24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Q24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="R24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="S24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="T24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="U24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="V24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="W24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="X24" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.3">
@@ -2159,67 +2160,67 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" si="1"/>
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="R26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X26" s="3">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
@@ -2231,67 +2232,67 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" si="1"/>
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="J27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="L27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="N27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="O27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="P27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Q27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="R27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="S27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="T27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="U27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="V27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="W27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="X27" s="3">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.3">
@@ -2375,67 +2376,67 @@
       </c>
       <c r="D29" s="9">
         <f t="shared" si="1"/>
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="R29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="X29" s="9">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2447,67 +2448,67 @@
       </c>
       <c r="D30" s="9">
         <f t="shared" si="1"/>
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="J30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="L30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="N30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="O30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="P30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Q30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="R30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="S30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="T30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="U30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="V30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="W30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="X30" s="9">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
   </sheetData>
@@ -4421,8 +4422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F9889E-C474-4008-911C-31263606DEAC}">
   <dimension ref="B2:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4516,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <f>AVERAGE(E4:AC4)</f>
+        <f t="shared" ref="D4:D15" si="0">AVERAGE(E4:AC4)</f>
         <v>516.70000000000005</v>
       </c>
       <c r="E4" s="3">
@@ -4588,7 +4589,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D15" si="0">AVERAGE(E5:AC5)</f>
+        <f t="shared" si="0"/>
         <v>687.2</v>
       </c>
       <c r="E5" s="6">
@@ -6313,6 +6314,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E4:X4">
+    <sortCondition ref="X4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>